--- a/data/publications/orcid/export_to_manual/Uniwersytet_Kazimierza_Wielkiego_w_Bydgoszczy_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Uniwersytet_Kazimierza_Wielkiego_w_Bydgoszczy_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,2477 +436,2680 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Małgorzata Basińska</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6763-8012</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Adaptacja Kwestionariusza Elastyczności Poznawczej - Cognitive Flexibility Inventory</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Małgorzata_Basińska_18</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Małgorzata Basińska</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6763-8012</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>The Brief Resilience Coping Scale - polska adaptacja Krótkiej Skali Prężności Zaradczej</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Przegląd Pedagogiczny</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Małgorzata_Basińska_20</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>37</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Barbara Ciżkowicz</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7176-0520</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Validation of the Short School Helplessness Scale (SBS-S)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Przegląd Badań Edukacyjnych</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Barbara_Ciżkowicz_1</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>38</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Barbara Ciżkowicz</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7176-0520</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Omega McDonalda jako alternatywa dla alfa Cronbacha w szacowaniu rzetelności testu</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barbara_Ciżkowicz_2</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Barbara Ciżkowicz</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7176-0520</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Walidacja polskiej wersji Skali Uogólnionego Problematycznego Używania Internetu (GPIUS2)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Barbara_Ciżkowicz_3</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>42</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Monika Deja</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5680-4903</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Sprawozdanie z 4. Międzynarodowego Kongresu Psychologii Klinicznej i Zdrowia Dzieci i Młodzieży (15-17 listopada 2018 roku, Palma de Mallorca, Majorka, Hiszpania)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Monika_Deja_2</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>43</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Monika Deja</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5680-4903</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Analiza danych podłużnych: modelowanie latentnych krzywych rozwojowych</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Monika_Deja_3</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>46</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Monika Deja</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5680-4903</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Rodzina w procesie wczesnego wspomagania rozwoju dziecka</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Polityka Społeczna</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Monika_Deja_6</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>47</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Monika Deja</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5680-4903</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Rodzina miejscem kształtowania zachowań prospołecznych dziecka</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Problemy Opiekuńczo-Wychowawcze</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Monika_Deja_7</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>48</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Monika Deja</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5680-4903</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Sprawozdanie z VII Interdyscyplinarnej Konferencji Doktorantów i Młodych Naukowców "Codzienne i niecodzienne zmagania zwykłych ludzi", 6-7 kwietnia 2017 roku, Bydgoszcz</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Monika_Deja_8</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>50</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Monika Deja</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5680-4903</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Uwaga na uwagę!</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Przedszkolne ABC</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Monika_Deja_10</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>52</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Karolina Głogowska</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5139-4826</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Sprawozdanie z 4. Międzynarodowego Kongresu Psychologii Klinicznej i Zdrowia Dzieci i Młodzieży, (15-17 listopada 2018 roku, Palma de Mallorca, Majorka, Hiszpania)</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Karolina_Głogowska_2</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>56</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Karolina Głogowska</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5139-4826</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Zastosowanie analizy równoważności pomiarowej w badaniach psychologicznych</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Karolina_Głogowska_6</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>63</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Izabela Grzankowska</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2278-8620</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Adaptacja Kwestionariusza Elastyczności Poznawczej - Cognitive Flexibility Inventory</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Izabela_Grzankowska_6</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>69</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Elżbieta Kasprzak</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8718-7546</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Adaptacja i walidacja narzędzia do badania pasji harmonijnej i pasji obsesyjnej: &amp;quot;Passion Scale&amp;quot; Marsha i współpracowników</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Elżbieta_Kasprzak_1</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>71</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Elżbieta Kasprzak</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8718-7546</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Charakterystyka formalna karier młodych Polaków</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Humanizacja Pracy</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Elżbieta_Kasprzak_3</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>72</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Elżbieta Kasprzak</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8718-7546</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Czynniki kontekstu pracy i kształtowanie pracy jako predyktory przywiązania do organizacji</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Organizacja i Kierowanie</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Elżbieta_Kasprzak_4</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>75</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Elżbieta Kasprzak</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8718-7546</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Pozytywna organizacja i pozytywna praca. Nowe trendy w zarządzaniu ludźmi</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Zarządzanie Zasobami Ludzkimi</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Elżbieta_Kasprzak_7</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>87</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Agnieszka Kruczek</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3500-3127</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Sprawozdanie z 32 Konferencji Europejskiego Towarzystwa Psychologii Zdrowia &amp;quot;Psychologia zdrowia w ciągu życia: łączenie badań, praktyki i polityki&amp;quot; [32nd Annual Conference of the European Health Psychology Society &amp;quot;Health Psychology Across The Lifespan: Uniting Research, Practice and Policy&amp;quot;] (21-25 sierpnia 2018, Galway, Irlandia)</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Agnieszka_Kruczek_12</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>92</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Hanna Liberska</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4323-2090</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Bezcenne związki</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Psychologia w Szkole</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Hanna_Liberska_2</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>93</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Hanna Liberska</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4323-2090</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Korzyści z języka</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Psychologia w Szkole</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Hanna_Liberska_3</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>95</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Hanna Liberska</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4323-2090</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Aktywność fizyczna, zachowania żywieniowe i ocena ciała u dziewcząt w drugiej fazie dorastania</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Przegląd Pedagogiczny - 2018, nr 2, s. 170-179</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Hanna_Liberska_5</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>97</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Hanna Liberska</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4323-2090</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Kształtowanie tożsamości i przyjmowanie roli sprawcy lub ofiary przez dorastających</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Hanna_Liberska_7</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>98</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Hanna Liberska</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4323-2090</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Sprawozdanie z XXIII World Meeting of the International Society for Research on Aggression, 10-14 July 2018, Paris, France</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Hanna_Liberska_8</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>99</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Hanna Liberska</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4323-2090</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>The life-span approach to human development in Polish psychology in the second half of the twentieth century</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Teoretični i prikladni problemi psihologiï</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Hanna_Liberska_9</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>101</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Hanna Liberska</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4323-2090</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Locus of control in the sphere of work in socially excluded persons</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Polish Journal of Social Science</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Hanna_Liberska_11</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>102</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Hanna Liberska</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4323-2090</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Między poczuciem akceptacji, wsparcia a wykluczeniem - uwarunkowania różnych dróg adaptacji dzieci do szkoły</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Studia Edukacyjne</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Hanna_Liberska_12</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>103</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Hanna Liberska</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4323-2090</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Selected subjective correlations of mariners attractiveness</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Polish Journal of Social Science</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Hanna_Liberska_13</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>104</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Hanna Liberska</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4323-2090</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Sprawozdanie z 15. Europejskiego Kongresu Psychologii, 11-14 lipca 2017 roku, Amsterdam, Holandia</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Hanna_Liberska_14</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>105</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Hanna Liberska</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4323-2090</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Sprawozdanie z II International Congress of Clinical and Health Psychology on Children and Adolescents 17-19 listopada 2016, Barcelona, Hiszpania</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Hanna_Liberska_15</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>106</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Hanna Liberska</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4323-2090</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>The level of self-esteem among Polish adolescents in a cross-cultural context</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Hanna_Liberska_16</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>109</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Hanna Liberska</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4323-2090</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Wspomnienie - Prof. Dr Jari-Erik Nurmi</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Hanna_Liberska_19</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>114</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Kamila Anna Litwic-Kaminska</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4697-5412</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Stress level and life satisfaction among academic athletes</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>2018-09-30</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Medycyna Sportowa</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Kamila_Anna_Litwic-Kaminska_5</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>115</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Kamila Anna Litwic-Kaminska</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4697-5412</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Comparison of good and poor sleepers: stress and life satisfaction of university athletes</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Revista de Psicologia del Deporte</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Kamila_Anna_Litwic-Kaminska_6</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>118</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Alicja Malina</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8866-5493</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Questionnaire of attitudes towards environmental integration of people with mental disorders</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Polish Journal of Social Science</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Alicja_Malina_3</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>124</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Maciej Michalak</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9147-5420</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Stres a subiektywna ocena bólu pooperacyjnego</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Pielęgniarstwo Chirurgiczne i Angiologiczne</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Maciej_Michalak_4</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>136</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Paulina Michalska</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2703-158X</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>"Just love me". Popularity of upbringing myth about the love able to replace upbringing among mothers of young children</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Edukacja Humanistyczna</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Paulina_Michalska_12</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>140</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Karolina Mudło-Głagolska</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8079-3781</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Adaptacja i walidacja narzędzia do badania pasji harmonijnej i pasji obsesyjnej: Passion Scale, Marsha i współpracowników</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Karolina_Mudło-Głagolska_3</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>144</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Karolina Mudło-Głagolska</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8079-3781</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Charakterystyka formalna karier młodych Polaków</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Humanizacja Pracy</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Karolina_Mudło-Głagolska_7</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>145</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Karolina Mudło-Głagolska</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8079-3781</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>Edukacja inkluzyjna w Polsce</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Przegląd Pedagogiczny</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Karolina_Mudło-Głagolska_8</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>147</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Anna Antonina Nogaj</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7179-9740</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Emotional Intelligence and Strategies for Coping With Stress Among Music School Students in the Context of Visual Art and General Education Students</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>2020-02-11</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Journal of Research in Music Education</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Anna_Antonina_Nogaj_2</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>148</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Anna Antonina Nogaj</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7179-9740</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>Temperament and social competences of students of art and music schools at the age of late adolescence</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Psychologia Rozwojowa</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Anna_Antonina_Nogaj_3</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>150</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Anna Antonina Nogaj</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7179-9740</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Cechy osobowości uczniów szkół muzycznych a poziom otrzymywanego wsparcia społecznego</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Anna_Antonina_Nogaj_5</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>151</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Anna Antonina Nogaj</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7179-9740</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Korzyści wynikające z kształcenia muzycznego</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Zeszyty Psychologiczno-Pedagogiczne Centrum Edukacji Artystycznej</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Anna_Antonina_Nogaj_6</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>153</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Anna Antonina Nogaj</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7179-9740</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>Różnice w poziomie osiągnięć muzycznych a psychospołeczne funkcjonowanie młodych instrumentalistów</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Anna_Antonina_Nogaj_8</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>155</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Roman Ossowski</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1275-0952</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>Internet i gry internetowe : osobisty rozwój czy ryzyko patologii zachowania? / Paweł Izdebski. - Warszawa 2019</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Roman_Ossowski_2</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>156</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Roman Ossowski</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1275-0952</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>Etyka zawodu psychologa / J. Brzeziński, B. Chyrowicz, Z. Toeplitz, M. Toeplitz-Winiewska. - Warszawa 2017</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Roman_Ossowski_3</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>157</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Roman Ossowski</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1275-0952</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Cechy osobowości uczniów szkół muzycznych a poziom otrzymywanego wsparcia społecznego</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Roman_Ossowski_4</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>158</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Roman Ossowski</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1275-0952</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>Nietrzymanie moczu u kobiet a jakość związku z partnerem</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Pielęgniarstwo Chirurgiczne i Angiologiczne</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Roman_Ossowski_5</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>160</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Roman Ossowski</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1275-0952</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>Psychospołeczne zagrożenia w pracy funkcjonariuszy Służby Więziennej - przegląd literatury</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Studia Prawnoustrojowe</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Roman_Ossowski_7</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>164</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Natalia Pilarska</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5545-1752</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>Znaczenie traumatycznych narracji porodowych oraz oceny opieki ginekologicznej jako czynnika rozwoju tokofobii w oczach młodych kobiet</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Natalia_Pilarska_3</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" t="n">
+        <v>169</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>Anna Rasmus</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5125-3081</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>The long-time effects of group therapy intervention on marriage communication between fluent and non-fluent aphasic patients and their spouses: who benefits the most?</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>Acta Neuropsychologica</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Anna_Rasmus_5</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" t="n">
+        <v>176</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>Michalina Sołtys</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2530-3633</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>Metodologia badań psychologicznych. Wydanie nowe / Jerzy Brzeziński. - Warszawa 2019</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Michalina_Sołtys_5</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="n">
+        <v>191</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>Ewa Sygit-Kowalkowska</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5909-5516</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>Zaburzenia zdrowia i stanu emocjonalnego osoby dorosłej dotkniętej przestępstwem a psychologiczna ocena osobowego źródła dowodowego</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>Studia Prawnoustrojowe</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Ewa_Sygit-Kowalkowska_7</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" t="n">
+        <v>193</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Ewa Sygit-Kowalkowska</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5909-5516</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>Psychospołeczne zagrożenia w pracy funkcjonariuszy Służby Więziennej - przegląd literatury</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>Studia Prawnoustrojowe</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Ewa_Sygit-Kowalkowska_9</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" t="n">
+        <v>201</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Anna Małgorzata Szymanik-Kostrzewska</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1544-7302</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>Description of the leukopenia case in the course of paliperodone treatment</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>European Psychiatry</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Anna_Małgorzata_Szymanik-Kostrzewska_6</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" t="n">
+        <v>204</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Anna Małgorzata Szymanik-Kostrzewska</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1544-7302</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>"Just love me". Popularity of upbringing myth about the love able to replace upbringing among mothers of young children</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>Edukacja Humanistyczna</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Anna_Małgorzata_Szymanik-Kostrzewska_9</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" t="n">
+        <v>221</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Monika Wiłkość-Dębczyńska</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0094-7793</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>Virtual reality in cognitive interventions for older adults and its application in the GRADYS training software</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>Gerontologia Polska</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Monika_Wiłkość-Dębczyńska_16</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" t="n">
+        <v>222</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Monika Wiłkość-Dębczyńska</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0094-7793</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>Virtual reality in cognitive interventions for older adults and its application in the GRADYS training software.</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>Gerontol. Pol.</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Monika_Wiłkość-Dębczyńska_17</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" t="n">
+        <v>228</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Ewa Wojtynkiewicz</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5419-8695</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>Uzależnienie od alkoholu w świetle teorii psychodynamicznych. Cz. 1. Przegląd teorii klasycznych</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>Psychoterapia</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Ewa_Wojtynkiewicz_6</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" t="n">
+        <v>229</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>Ewa Wojtynkiewicz</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5419-8695</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>Uzależnienie od alkoholu w świetle teorii psychodynamicznych. Cz. 2. Przegląd teorii współczesnych</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>Psychoterapia</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Ewa_Wojtynkiewicz_7</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" t="n">
+        <v>233</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>Ludmiła Zając-Lamparska</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4618-547X</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>Neuropsychological factors of subjective cognitive complaints of the older adults</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>2021-03-14</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>Acta Neuropsychologica</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Ludmiła_Zając-Lamparska_4</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" t="n">
+        <v>234</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>Ludmiła Zając-Lamparska</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4618-547X</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>The possibility of linking spontaneous and induced neurocognitive plasticity: Can cognitive training influence compensatory brain activity in older adults? Theoretical and empirical premises</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>Acta Neuropsychologica</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Ludmiła_Zając-Lamparska_5</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" t="n">
+        <v>238</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>Ludmiła Zając-Lamparska</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4618-547X</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>Analiza danych podłużnych: modelowanie latentnych krzywych rozwojowych</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Ludmiła_Zając-Lamparska_9</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" t="n">
+        <v>239</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>Ludmiła Zając-Lamparska</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4618-547X</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>Kompensacyjna aktywność mózgu osób starszych</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>Gerontologia Polska</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Ludmiła_Zając-Lamparska_10</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" t="n">
+        <v>243</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>Ludmiła Zając-Lamparska</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4618-547X</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>Virtual reality in cognitive interventions for older adults and its application in the GRADYS training software</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>Gerontologia Polska</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Ludmiła_Zając-Lamparska_14</t>
         </is>

--- a/data/publications/orcid/export_to_manual/Uniwersytet_Kazimierza_Wielkiego_w_Bydgoszczy_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Uniwersytet_Kazimierza_Wielkiego_w_Bydgoszczy_titles.xlsx
@@ -1231,7 +1231,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Agnieszka_Kruczek_12</t>
+          <t>Agnieszka_Kruczek_8</t>
         </is>
       </c>
     </row>
